--- a/data/retrospectives_data.xlsx
+++ b/data/retrospectives_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GenAI_Prjs\Retro-Star\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GenAI_Prjs\Retro-Star\backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73081764-7EEF-4359-B3A3-2A11B89C5385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653FBA70-7401-4166-9098-3B1134F38314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06D8BB1A-4353-4705-9925-BAD1D557DDED}"/>
   </bookViews>
@@ -36,27 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="177">
-  <si>
-    <t>What went well</t>
-  </si>
-  <si>
-    <t>What can be improved</t>
-  </si>
-  <si>
-    <t>Action Items</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="177">
   <si>
     <t>Thank you team for taking up NY mandate changes on priority &amp; 
 completing everything (Analysis, mapping, model, Cod Changes &amp; DDL Validation)</t>
   </si>
   <si>
-    <t>Votes (Well)</t>
-  </si>
-  <si>
-    <t>Votes (Improve)</t>
-  </si>
-  <si>
     <t>Team 1</t>
   </si>
   <si>
@@ -571,6 +556,21 @@
   </si>
   <si>
     <t>Team</t>
+  </si>
+  <si>
+    <t>Well</t>
+  </si>
+  <si>
+    <t>WellVotes</t>
+  </si>
+  <si>
+    <t>Improvements</t>
+  </si>
+  <si>
+    <t>ImprovementVotes</t>
+  </si>
+  <si>
+    <t>Actions</t>
   </si>
 </sst>
 </file>
@@ -634,7 +634,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -644,6 +644,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -980,7 +981,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC0C5A2-7159-46A6-A8DA-87EDE36AE500}">
   <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65:B67"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -995,42 +998,42 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
@@ -1041,13 +1044,13 @@
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1">
         <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -1056,19 +1059,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D4" s="1">
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1">
         <v>2</v>
@@ -1079,26 +1082,26 @@
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1">
         <v>2</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F5" s="1">
         <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1">
         <v>3</v>
@@ -1109,13 +1112,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
@@ -1128,7 +1131,7 @@
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1">
         <v>2</v>
@@ -1139,13 +1142,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D9" s="1">
         <v>6</v>
@@ -1158,7 +1161,7 @@
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D10" s="1">
         <v>2</v>
@@ -1171,7 +1174,7 @@
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
@@ -1182,19 +1185,19 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F12" s="1">
         <v>6</v>
@@ -1205,26 +1208,26 @@
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D13" s="1">
         <v>2</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D14" s="1">
         <v>6</v>
@@ -1237,7 +1240,7 @@
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D15" s="1">
         <v>3</v>
@@ -1250,7 +1253,7 @@
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D16" s="1">
         <v>3</v>
@@ -1263,7 +1266,7 @@
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D17" s="1">
         <v>4</v>
@@ -1274,19 +1277,19 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D18" s="1">
         <v>3</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F18" s="1">
         <v>1</v>
@@ -1297,13 +1300,13 @@
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D19" s="1">
         <v>3</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F19" s="1">
         <v>4</v>
@@ -1314,7 +1317,7 @@
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D20" s="1">
         <v>4</v>
@@ -1327,7 +1330,7 @@
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D21" s="1">
         <v>3</v>
@@ -1340,7 +1343,7 @@
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D22" s="1">
         <v>2</v>
@@ -1353,7 +1356,7 @@
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D23" s="1">
         <v>3</v>
@@ -1364,19 +1367,19 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D24" s="1">
         <v>2</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F24" s="1">
         <v>1</v>
@@ -1387,13 +1390,13 @@
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D25" s="1">
         <v>3</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F25" s="1">
         <v>3</v>
@@ -1404,13 +1407,13 @@
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F26" s="1">
         <v>5</v>
@@ -1423,7 +1426,7 @@
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
@@ -1432,13 +1435,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -1447,25 +1450,25 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D29" s="1">
         <v>5</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F29" s="1">
         <v>1</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1474,7 +1477,7 @@
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F30" s="1">
         <v>5</v>
@@ -1487,7 +1490,7 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F31" s="1">
         <v>2</v>
@@ -1500,7 +1503,7 @@
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F32" s="1">
         <v>3</v>
@@ -1509,19 +1512,19 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D33" s="1">
         <v>2</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F33" s="1">
         <v>1</v>
@@ -1532,13 +1535,13 @@
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D34" s="1">
         <v>5</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F34" s="1">
         <v>2</v>
@@ -1549,13 +1552,13 @@
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D35" s="1">
         <v>7</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F35" s="1">
         <v>5</v>
@@ -1566,7 +1569,7 @@
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D36" s="1">
         <v>2</v>
@@ -1579,7 +1582,7 @@
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D37" s="1">
         <v>2</v>
@@ -1592,7 +1595,7 @@
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D38" s="1">
         <v>3</v>
@@ -1605,7 +1608,7 @@
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D39" s="1">
         <v>4</v>
@@ -1618,7 +1621,7 @@
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D40" s="1">
         <v>6</v>
@@ -1629,15 +1632,15 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F41" s="1">
         <v>6</v>
@@ -1646,13 +1649,13 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D42" s="1">
         <v>3</v>
@@ -1665,7 +1668,7 @@
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D43" s="1">
         <v>2</v>
@@ -1678,7 +1681,7 @@
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D44" s="1">
         <v>5</v>
@@ -1691,7 +1694,7 @@
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D45" s="1">
         <v>7</v>
@@ -1704,7 +1707,7 @@
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D46" s="1">
         <v>5</v>
@@ -1717,7 +1720,7 @@
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D47" s="1">
         <v>2</v>
@@ -1730,7 +1733,7 @@
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D48" s="1">
         <v>4</v>
@@ -1743,7 +1746,7 @@
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D49" s="1">
         <v>3</v>
@@ -1754,13 +1757,13 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D50" s="1">
         <v>2</v>
@@ -1773,7 +1776,7 @@
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D51" s="1">
         <v>3</v>
@@ -1786,13 +1789,13 @@
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D52" s="1">
         <v>5</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F52" s="1">
         <v>3</v>
@@ -1801,19 +1804,19 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D53" s="1">
         <v>3</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F53" s="1">
         <v>3</v>
@@ -1824,13 +1827,13 @@
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D54" s="1">
         <v>3</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F54" s="1">
         <v>1</v>
@@ -1843,7 +1846,7 @@
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F55" s="1">
         <v>0</v>
@@ -1852,19 +1855,19 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B56" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D56" s="1">
+        <v>3</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D56" s="1">
-        <v>3</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="F56" s="1">
         <v>1</v>
@@ -1875,13 +1878,13 @@
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D57" s="1">
         <v>3</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F57" s="1">
         <v>2</v>
@@ -1892,7 +1895,7 @@
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D58" s="1">
         <v>2</v>
@@ -1903,19 +1906,19 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="D59" s="1">
         <v>5</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F59" s="1">
         <v>4</v>
@@ -1926,13 +1929,13 @@
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D60" s="1">
+        <v>3</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="D60" s="1">
-        <v>3</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="F60" s="1">
         <v>5</v>
@@ -1943,13 +1946,13 @@
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D61" s="1">
         <v>1</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F61" s="1">
         <v>2</v>
@@ -1960,7 +1963,7 @@
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D62" s="1">
         <v>2</v>
@@ -1973,7 +1976,7 @@
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D63" s="1">
         <v>1</v>
@@ -1983,20 +1986,20 @@
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>108</v>
+      <c r="A64" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D64" s="1">
         <v>7</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F64" s="1">
         <v>3</v>
@@ -2004,16 +2007,20 @@
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
+      <c r="A65" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>103</v>
+      </c>
       <c r="C65" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D65" s="1">
         <v>3</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F65" s="1">
         <v>8</v>
@@ -2021,16 +2028,20 @@
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
+      <c r="A66" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>103</v>
+      </c>
       <c r="C66" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D66" s="1">
         <v>3</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F66" s="1">
         <v>2</v>
@@ -2038,16 +2049,20 @@
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
+      <c r="A67" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>103</v>
+      </c>
       <c r="C67" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D67" s="1">
         <v>5</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F67" s="1">
         <v>4</v>
@@ -2056,32 +2071,32 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D68" s="1">
         <v>7</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F68" s="1">
         <v>3</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D69" s="1">
         <v>6</v>
@@ -2094,7 +2109,7 @@
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D70" s="1">
         <v>4</v>
@@ -2107,7 +2122,7 @@
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D71" s="1">
         <v>4</v>
@@ -2120,7 +2135,7 @@
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D72" s="1">
         <v>8</v>
@@ -2133,7 +2148,7 @@
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D73" s="1">
         <v>3</v>
@@ -2146,7 +2161,7 @@
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D74" s="1">
         <v>2</v>
@@ -2157,38 +2172,38 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D75" s="1">
         <v>2</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F75" s="1">
         <v>4</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D76" s="1">
         <v>2</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F76" s="1">
         <v>6</v>
@@ -2199,7 +2214,7 @@
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D77" s="1">
         <v>0</v>
@@ -2212,7 +2227,7 @@
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D78" s="1">
         <v>2</v>
@@ -2225,7 +2240,7 @@
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D79" s="1">
         <v>5</v>
@@ -2238,7 +2253,7 @@
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D80" s="1">
         <v>3</v>
@@ -2251,7 +2266,7 @@
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D81" s="1">
         <v>8</v>
@@ -2262,13 +2277,13 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D82" s="1">
         <v>3</v>
@@ -2276,14 +2291,14 @@
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D83" s="1">
         <v>2</v>
@@ -2294,19 +2309,19 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D84" s="1">
         <v>3</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F84" s="1">
         <v>4</v>
@@ -2317,13 +2332,13 @@
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D85" s="1">
         <v>7</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F85" s="1">
         <v>2</v>
@@ -2334,13 +2349,13 @@
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D86" s="1">
         <v>4</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F86" s="1">
         <v>5</v>
@@ -2351,7 +2366,7 @@
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D87" s="1">
         <v>6</v>
@@ -2364,7 +2379,7 @@
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D88" s="1">
         <v>0</v>
@@ -2375,19 +2390,19 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D89" s="1">
         <v>5</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F89" s="1">
         <v>3</v>
@@ -2398,13 +2413,13 @@
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D90" s="1">
         <v>4</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F90" s="1">
         <v>3</v>
@@ -2415,13 +2430,13 @@
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D91" s="1">
         <v>8</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F91" s="1">
         <v>8</v>
@@ -2432,13 +2447,13 @@
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D92" s="1">
         <v>9</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F92" s="1">
         <v>5</v>
@@ -2449,7 +2464,7 @@
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D93" s="1">
         <v>6</v>
@@ -2460,38 +2475,38 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D94" s="1">
         <v>2</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F94" s="1">
         <v>5</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D95" s="1">
         <v>5</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F95" s="1">
         <v>3</v>
@@ -2502,7 +2517,7 @@
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D96" s="1">
         <v>7</v>
@@ -2515,7 +2530,7 @@
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D97" s="1">
         <v>4</v>
@@ -2528,7 +2543,7 @@
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D98" s="1">
         <v>3</v>
@@ -2541,7 +2556,7 @@
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D99" s="1">
         <v>6</v>
@@ -2552,19 +2567,19 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D100" s="1">
         <v>3</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F100" s="1">
         <v>5</v>
@@ -2575,13 +2590,13 @@
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D101" s="1">
         <v>4</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F101" s="1">
         <v>3</v>
@@ -2592,7 +2607,7 @@
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D102" s="1">
         <v>2</v>
@@ -2602,7 +2617,7 @@
       <c r="G102" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="42">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A4:A6"/>
@@ -2631,8 +2646,6 @@
     <mergeCell ref="A50:A52"/>
     <mergeCell ref="B53:B55"/>
     <mergeCell ref="A53:A55"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="A64:A67"/>
     <mergeCell ref="B68:B74"/>
     <mergeCell ref="A68:A74"/>
     <mergeCell ref="B75:B81"/>
